--- a/SchoolDistrictBilling/wwwroot/reportTemplates/MonthlyInvoice.xlsx
+++ b/SchoolDistrictBilling/wwwroot/reportTemplates/MonthlyInvoice.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19200"/>
   </bookViews>
   <sheets>
     <sheet name="CY Invoice Template " sheetId="6" r:id="rId1"/>
@@ -146,60 +146,60 @@
     <t>Invoice Prep Date:</t>
   </si>
   <si>
-    <t>INVOICE FOR THE 2021-2022 SCHOOL YEAR</t>
+    <t>INVOICE FOR THE 2022-2023 SCHOOL YEAR</t>
   </si>
   <si>
     <t>JUL
-2021</t>
+2022</t>
   </si>
   <si>
     <t>AUG
-2021</t>
+2022</t>
   </si>
   <si>
     <t>SEP
-2021</t>
+2022</t>
   </si>
   <si>
     <t>OCT
-2021</t>
+2022</t>
   </si>
   <si>
     <t>NOV
-2021</t>
+2022</t>
   </si>
   <si>
     <t>DEC
-2021</t>
+2022</t>
   </si>
   <si>
     <t>JAN
-2022</t>
+2023</t>
   </si>
   <si>
     <t>FEB
-2022</t>
+2023</t>
   </si>
   <si>
     <t>MAR
-2022</t>
+2023</t>
   </si>
   <si>
     <t>APR
-2022</t>
+2023</t>
   </si>
   <si>
     <t>MAY
-2022</t>
-  </si>
-  <si>
-    <t>July, 2021</t>
-  </si>
-  <si>
-    <t>January, 2022</t>
-  </si>
-  <si>
-    <t>Total Paid to Date for 2021-2022 School Year:</t>
+2023</t>
+  </si>
+  <si>
+    <t>July, 2022</t>
+  </si>
+  <si>
+    <t>January, 2023</t>
+  </si>
+  <si>
+    <t>Total Paid to Date for 2022-2023 School Year:</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -609,7 +609,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -683,9 +682,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -699,9 +695,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -710,25 +726,12 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1120,7 +1123,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1214,28 +1217,28 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="G6" s="35"/>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="44" t="s">
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="43" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="72"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -1244,12 +1247,12 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="47" t="s">
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="46" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1264,12 +1267,12 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="48" t="s">
+      <c r="K8" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="50" t="s">
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1296,84 +1299,84 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="60" t="s">
+      <c r="H11" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="60" t="s">
+      <c r="J11" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="60" t="s">
+      <c r="K11" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="60" t="s">
+      <c r="L11" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="61" t="s">
+      <c r="M11" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="55" t="s">
+      <c r="N11" s="54" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="56">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="55">
         <f>ROUND(SUMIF(B12:L12,"&gt;0")*M12/12,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="56">
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="55">
         <f>ROUND(SUMIF(B13:L13,"&gt;0")*M13/12,2)</f>
         <v>0</v>
       </c>
@@ -1430,74 +1433,74 @@
       <c r="L18" s="28"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="72" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="24"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="67"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="70"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C20" s="25" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="25"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="69"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="64"/>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C21" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="69"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="64"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="69"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="64"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="69"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="64"/>
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.15">
@@ -1505,117 +1508,117 @@
         <v>9</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="69"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="64"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="73" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="69"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="64"/>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C26" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="69"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="64"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="69"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C28" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="69"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="64"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C29" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="69"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="64"/>
     </row>
     <row r="30" spans="3:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C30" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="10"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="71"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="66"/>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.15">
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="65">
+      <c r="G31" s="67">
         <f>SUM(G19:H30)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65">
+      <c r="H31" s="67"/>
+      <c r="I31" s="67">
         <f>SUM(I19:J30)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65">
+      <c r="J31" s="67"/>
+      <c r="K31" s="67">
         <f>SUM(K19:L30)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="65"/>
+      <c r="L31" s="67"/>
     </row>
     <row r="33" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E33" s="11"/>
@@ -1636,23 +1639,48 @@
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
-      <c r="M35" s="63" t="str">
+      <c r="M35" s="61" t="str">
         <f>IF(N15-N33&gt;=0,"Net Due to Charter School:","Net Due to School District:")</f>
         <v>Net Due to Charter School:</v>
       </c>
-      <c r="N35" s="63">
+      <c r="N35" s="61">
         <f>ROUND(ABS(N15-N33),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="N36" s="64" t="str">
+      <c r="N36" s="62" t="str">
         <f>IF(N33&gt;N15,"Refund due to School District","")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
@@ -1669,31 +1697,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
   </mergeCells>
   <conditionalFormatting sqref="N35">
     <cfRule type="expression" dxfId="1" priority="2">
@@ -1713,6 +1716,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063A4E9D8B9AE294BB8664582FC3229C4" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab5e3be8eaf3cd0fb5535aa68510e8f5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="daabebb8d57a36d92a4894986269ef22" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1844,7 +1856,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -1853,16 +1865,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA2D2F8-832A-4989-8219-D280B2661041}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{167C8EAE-95D9-4501-BA02-1317C6653E20}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1880,7 +1891,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A354860E-74B8-4009-BC25-F3B5FDC09B4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1888,12 +1899,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA2D2F8-832A-4989-8219-D280B2661041}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SchoolDistrictBilling/wwwroot/reportTemplates/MonthlyInvoice.xlsx
+++ b/SchoolDistrictBilling/wwwroot/reportTemplates/MonthlyInvoice.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhensinger/dev/omnivest/SdBilling/SchoolDistrictBilling/wwwroot/reportTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994197E1-9341-324C-9D3C-190C65F3C7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19200"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CY Invoice Template " sheetId="6" r:id="rId1"/>
@@ -17,13 +18,10 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'CY Invoice Template '!$1:$7</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +29,13 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -146,66 +150,66 @@
     <t>Invoice Prep Date:</t>
   </si>
   <si>
-    <t>INVOICE FOR THE 2022-2023 SCHOOL YEAR</t>
+    <t>INVOICE FOR THE 2024-2025 SCHOOL YEAR</t>
   </si>
   <si>
     <t>JUL
-2022</t>
+2024</t>
   </si>
   <si>
     <t>AUG
-2022</t>
+2024</t>
   </si>
   <si>
     <t>SEP
-2022</t>
+2024</t>
   </si>
   <si>
     <t>OCT
-2022</t>
+2024</t>
   </si>
   <si>
     <t>NOV
-2022</t>
+2024</t>
   </si>
   <si>
     <t>DEC
-2022</t>
+2024</t>
   </si>
   <si>
     <t>JAN
-2023</t>
+2025</t>
   </si>
   <si>
     <t>FEB
-2023</t>
+2025</t>
   </si>
   <si>
     <t>MAR
-2023</t>
+2025</t>
   </si>
   <si>
     <t>APR
-2023</t>
+2025</t>
   </si>
   <si>
     <t>MAY
-2023</t>
-  </si>
-  <si>
-    <t>July, 2022</t>
-  </si>
-  <si>
-    <t>January, 2023</t>
-  </si>
-  <si>
-    <t>Total Paid to Date for 2022-2023 School Year:</t>
+2025</t>
+  </si>
+  <si>
+    <t>July, 2024</t>
+  </si>
+  <si>
+    <t>January, 2025</t>
+  </si>
+  <si>
+    <t>Total Paid to Date for 2024-2025 School Year:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -529,210 +533,198 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,7 +1111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1128,78 +1120,77 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="9.6640625" style="13" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="13" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="13" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="13"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="H1" s="16" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="H1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="H2" s="17" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="H2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-    </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="H3" s="18" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="H3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -1217,67 +1208,56 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="G6" s="35"/>
-      <c r="K6" s="41" t="s">
+      <c r="B6" s="63"/>
+      <c r="G6" s="29"/>
+      <c r="K6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="43" t="s">
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="44" t="s">
+      <c r="B7" s="63"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="46" t="s">
+      <c r="N7" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="47" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="28"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="49" t="s">
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="42" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="17"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1288,7 +1268,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="17"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1299,91 +1279,91 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="71" t="s">
+      <c r="I11" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="71" t="s">
+      <c r="J11" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="71" t="s">
+      <c r="K11" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="59" t="s">
+      <c r="M11" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="54" t="s">
+      <c r="N11" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="55">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="48">
         <f>ROUND(SUMIF(B12:L12,"&gt;0")*M12/12,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="55">
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="48">
         <f>ROUND(SUMIF(B13:L13,"&gt;0")*M13/12,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="L15" s="15"/>
-      <c r="M15" s="14" t="s">
+      <c r="L15" s="13"/>
+      <c r="M15" s="12" t="s">
         <v>11</v>
       </c>
       <c r="N15" s="3">
@@ -1398,289 +1378,258 @@
       <c r="F17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="23" t="s">
+    <row r="18" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="27" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="31" t="s">
+      <c r="H18" s="19"/>
+      <c r="I18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29" t="s">
+      <c r="J18" s="22"/>
+      <c r="K18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="28"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="70"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="58"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C20" s="25" t="s">
+      <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="64"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="60"/>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="64"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="60"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="64"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="60"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="64"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="60"/>
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="64"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="60"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="64"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="60"/>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="64"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="60"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="64"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="60"/>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="64"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="60"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="64"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="60"/>
     </row>
     <row r="30" spans="3:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="66"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="62"/>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="67">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="56">
         <f>SUM(G19:H30)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67">
+      <c r="H31" s="56"/>
+      <c r="I31" s="56">
         <f>SUM(I19:J30)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67">
+      <c r="J31" s="56"/>
+      <c r="K31" s="56">
         <f>SUM(K19:L30)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="67"/>
-    </row>
-    <row r="33" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E33" s="11"/>
-      <c r="M33" s="14" t="s">
+      <c r="L31" s="56"/>
+    </row>
+    <row r="33" spans="5:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="10"/>
+      <c r="M33" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="8">
         <f>G31+I31-K31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="M35" s="61" t="str">
+    <row r="34" spans="5:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="M35" s="54" t="str">
         <f>IF(N15-N33&gt;=0,"Net Due to Charter School:","Net Due to School District:")</f>
         <v>Net Due to Charter School:</v>
       </c>
-      <c r="N35" s="61">
+      <c r="N35" s="54">
         <f>ROUND(ABS(N15-N33),2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="N36" s="62" t="str">
+    <row r="36" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="N36" s="55" t="str">
         <f>IF(N33&gt;N15,"Refund due to School District","")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
@@ -1697,15 +1646,40 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
   </mergeCells>
-  <conditionalFormatting sqref="N35">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$N$33&gt;$N$13</formula>
+  <conditionalFormatting sqref="M35">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$N$33&gt;$N$15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M35">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$N$33&gt;$N$15</formula>
+  <conditionalFormatting sqref="N35">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$N$33&gt;$N$13</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -1716,12 +1690,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1857,18 +1831,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA2D2F8-832A-4989-8219-D280B2661041}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A354860E-74B8-4009-BC25-F3B5FDC09B4B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1892,11 +1868,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A354860E-74B8-4009-BC25-F3B5FDC09B4B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA2D2F8-832A-4989-8219-D280B2661041}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>